--- a/Allsvenskan CSV.xlsx
+++ b/Allsvenskan CSV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelrydstrand/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelrydstrand/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495EC53-F922-1E41-8B07-05615AB3B112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B6E884-BD70-1146-89CA-9E9339147F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
